--- a/output_files/test.xlsx
+++ b/output_files/test.xlsx
@@ -3098,7 +3098,7 @@
         <v>18.19478328259358</v>
       </c>
       <c r="ED7">
-        <v>4.300644587743975</v>
+        <v>1.373815319451292</v>
       </c>
       <c r="EE7">
         <v>3.773343135535052</v>
@@ -3415,7 +3415,7 @@
         <v>18.90173174003409</v>
       </c>
       <c r="ED8">
-        <v>5.946644665578998</v>
+        <v>1.115726791182864</v>
       </c>
       <c r="EE8">
         <v>3.206931047071198</v>
@@ -3732,7 +3732,7 @@
         <v>17.88659597115264</v>
       </c>
       <c r="ED9">
-        <v>5.858321676612517</v>
+        <v>1.027403802216382</v>
       </c>
       <c r="EE9">
         <v>1.803289568970126</v>
@@ -4049,7 +4049,7 @@
         <v>16.20222278624058</v>
       </c>
       <c r="ED10">
-        <v>5.849272229475049</v>
+        <v>1.018354355078913</v>
       </c>
       <c r="EE10">
         <v>0.5155816700721584</v>
@@ -4366,7 +4366,7 @@
         <v>17.58493938870387</v>
       </c>
       <c r="ED11">
-        <v>5.797101449275362</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="EE11">
         <v>0.5258021046188016</v>
@@ -4683,7 +4683,7 @@
         <v>19.94150486654128</v>
       </c>
       <c r="ED12">
-        <v>5.797101449275362</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="EE12">
         <v>0.5333793204165622</v>
@@ -5000,7 +5000,7 @@
         <v>16.09807508447156</v>
       </c>
       <c r="ED13">
-        <v>5.83637973947341</v>
+        <v>1.005461865077275</v>
       </c>
       <c r="EE13">
         <v>0.5376031249467305</v>
